--- a/Docs To Test/Docs To Test/Business Unit Test.xlsx
+++ b/Docs To Test/Docs To Test/Business Unit Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Module</t>
   </si>
@@ -40,42 +40,6 @@
   </si>
   <si>
     <t>Closure date</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>SearchLostsByNameAndCode</t>
-  </si>
-  <si>
-    <t>Losts Entries</t>
-  </si>
-  <si>
-    <t>DeleteLostEntry</t>
-  </si>
-  <si>
-    <t>SetLost</t>
-  </si>
-  <si>
-    <t>CreateLostEntry</t>
-  </si>
-  <si>
-    <t>SearchLostsByCode</t>
-  </si>
-  <si>
-    <t>Moderators</t>
-  </si>
-  <si>
-    <t>CreateAdmin</t>
-  </si>
-  <si>
-    <t>UpdateAdmins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DeleteAdmins</t>
   </si>
 </sst>
 </file>
@@ -451,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
@@ -495,81 +459,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
